--- a/processed_data/AEG.xlsx
+++ b/processed_data/AEG.xlsx
@@ -1,128 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Git Hub\Data-Wrangling-and-Transformation\processed_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
-  <si>
-    <t>Picture</t>
-  </si>
-  <si>
-    <t>Item code</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Extra information</t>
-  </si>
-  <si>
-    <t>Restriction</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Sales price EXW</t>
-  </si>
-  <si>
-    <t>Retail price</t>
-  </si>
-  <si>
-    <t>Barcode</t>
-  </si>
-  <si>
-    <t>Quantity PU</t>
-  </si>
-  <si>
-    <t>Quantity pallet</t>
-  </si>
-  <si>
-    <t>Pallet</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>Customs code</t>
-  </si>
-  <si>
-    <t>Item weight</t>
-  </si>
-  <si>
-    <t>Languages on package</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>22683</t>
-  </si>
-  <si>
-    <t>AEG, Toaster</t>
-  </si>
-  <si>
-    <t>950073119</t>
-  </si>
-  <si>
-    <t>Only Sales In Austria, Es, BE, NL, LUX, UK &amp; MEA</t>
-  </si>
-  <si>
-    <t>7332543331741</t>
-  </si>
-  <si>
-    <t>AEG</t>
-  </si>
-  <si>
-    <t>22684</t>
-  </si>
-  <si>
-    <t>AEG, Coffee Maker</t>
-  </si>
-  <si>
-    <t>950074389</t>
-  </si>
-  <si>
-    <t>7332543438686</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -137,111 +46,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889200" cy="594000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Picture"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10210800" cy="8886825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57150" y="304800"/>
-          <a:ext cx="889200" cy="594000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889200" cy="594000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="Picture"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5238750" cy="7467600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28575" y="1219200"/>
-          <a:ext cx="889200" cy="594000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,151 +475,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col width="14.5703125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Picture</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Item code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra information</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Restriction</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sales price EXW</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Retail price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Barcode</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Quantity PU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Quantity pallet</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Pallet</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Origin</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Customs code</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Item weight</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Languages on package</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22683</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AEG, Toaster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>950073119</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Only Sales In Austria, Es, BE, NL, LUX, UK &amp; MEA</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>7332543331741</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="N2" t="n">
+        <v>8516792000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3320</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>AEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>22684</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AEG, Coffee Maker</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>950074389</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Only Sales In Austria, Es, BE, NL, LUX, UK &amp; MEA</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>798</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>89</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>7332543438686</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
+      <c r="N3" t="n">
+        <v>8516792000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3440</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>AEG</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>1835</v>
-      </c>
-      <c r="G2">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H2">
-        <v>87.5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>8516792000</v>
-      </c>
-      <c r="O2">
-        <v>3320</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>798</v>
-      </c>
-      <c r="G3">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H3">
-        <v>89</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <v>8516792000</v>
-      </c>
-      <c r="O3">
-        <v>3440</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="76.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" ht="76.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
